--- a/reactive/routers_buffer_dynamic_bit_reverse.xlsx
+++ b/reactive/routers_buffer_dynamic_bit_reverse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7A4293-015E-4F3E-926E-A64FA6103987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AF65C-71AB-4EEB-861E-971B4DC09ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6492" yWindow="708" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -109,27 +109,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2214,7 +2194,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G21"/>
+      <selection activeCell="C22" sqref="C22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/reactive/routers_buffer_dynamic_bit_reverse.xlsx
+++ b/reactive/routers_buffer_dynamic_bit_reverse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-18.04\home\soliman\m5out_stats\reactive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AF65C-71AB-4EEB-861E-971B4DC09ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807BF45-2F49-40F9-B454-D4D81B6C5D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="26484" windowHeight="15048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23616" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>AVG</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
@@ -2193,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22:G22"/>
     </sheetView>
   </sheetViews>
@@ -2740,9 +2743,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADBA4A1-8651-46DF-B6FC-104F36887781}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3481,6 +3486,47 @@
         <v>4.8920823915699996E-4</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C21)</f>
+        <v>4.8844495674615007E-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:K22" si="0">AVERAGE(D2:D21)</f>
+        <v>4.7573810392634991E-4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.8583510192724995E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>4.8740579160534995E-4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>4.8830908725159996E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>4.315049455295E-4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>4.9054107490264999E-4</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>4.2140565244205006E-4</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>4.2014957134514999E-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
